--- a/LanguageTable.xlsx
+++ b/LanguageTable.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S_ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3924F1E2-D25A-47DA-9269-289F4B1AD9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F222E8-99AC-446A-8E32-AC27B5709D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23340" yWindow="2865" windowWidth="13950" windowHeight="15435" xr2:uid="{AAB4CE34-E4E0-4D77-B120-BA729BD103AD}"/>
+    <workbookView xWindow="16275" yWindow="4215" windowWidth="19800" windowHeight="15435" xr2:uid="{AAB4CE34-E4E0-4D77-B120-BA729BD103AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="StringTable" sheetId="1" r:id="rId1"/>
+    <sheet name="language" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>안녕하세요!</t>
   </si>
@@ -41,18 +41,6 @@
     <t>hello!</t>
   </si>
   <si>
-    <t>반가워요!</t>
-  </si>
-  <si>
-    <t>nice to meet you!</t>
-  </si>
-  <si>
-    <t>뭘보냐?</t>
-  </si>
-  <si>
-    <t>What do you see?</t>
-  </si>
-  <si>
     <t>아로</t>
   </si>
   <si>
@@ -65,13 +53,52 @@
     <t>Kaya</t>
   </si>
   <si>
+    <t>korLanguage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>korlanguage</t>
-  </si>
-  <si>
-    <t>englanguage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engLanguage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 아로에요!</t>
+  </si>
+  <si>
+    <t>I'm Aro!</t>
+  </si>
+  <si>
+    <t>저는 카야에요!</t>
+  </si>
+  <si>
+    <t>I'm Kaya!</t>
+  </si>
+  <si>
+    <t>반가워요</t>
+  </si>
+  <si>
+    <t>nice to meet you</t>
+  </si>
+  <si>
+    <t>저는 농부에요</t>
+  </si>
+  <si>
+    <t>I am a farmer</t>
+  </si>
+  <si>
+    <t>저도 반가워요</t>
+  </si>
+  <si>
+    <t>Nice to meet you, too</t>
+  </si>
+  <si>
+    <t>저는 가수에요</t>
+  </si>
+  <si>
+    <t>I am a singer</t>
   </si>
 </sst>
 </file>
@@ -435,28 +462,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BE24BD-A55F-469A-BBE1-927D9BDB8507}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,10 +502,10 @@
         <v>10102</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,32 +513,87 @@
         <v>10103</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>12010001</v>
+        <v>10104</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>12020001</v>
+        <v>10105</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12010000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12020000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
